--- a/ig/ANS-006-115-#150-#67/all-profiles.xlsx
+++ b/ig/ANS-006-115-#150-#67/all-profiles.xlsx
@@ -5061,7 +5061,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.97265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="71.62109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="55.12890625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
@@ -5866,10 +5866,10 @@
       </c>
       <c r="R8" s="2"/>
       <c r="S8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T8" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U8" t="s" s="2">
         <v>74</v>
@@ -12158,10 +12158,10 @@
       </c>
       <c r="R68" s="2"/>
       <c r="S68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T68" t="s" s="2">
         <v>12</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U68" t="s" s="2">
         <v>74</v>
@@ -12263,10 +12263,10 @@
       </c>
       <c r="R69" s="2"/>
       <c r="S69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T69" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U69" t="s" s="2">
         <v>74</v>
@@ -12368,10 +12368,10 @@
       </c>
       <c r="R70" s="2"/>
       <c r="S70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T70" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>74</v>
@@ -16772,10 +16772,10 @@
       </c>
       <c r="R112" s="2"/>
       <c r="S112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T112" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U112" t="s" s="2">
         <v>74</v>
@@ -17715,10 +17715,10 @@
       </c>
       <c r="R121" s="2"/>
       <c r="S121" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T121" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U121" t="s" s="2">
         <v>74</v>
@@ -24974,10 +24974,10 @@
       </c>
       <c r="R190" s="2"/>
       <c r="S190" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T190" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="T190" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U190" t="s" s="2">
         <v>74</v>
@@ -37582,10 +37582,10 @@
       </c>
       <c r="R310" s="2"/>
       <c r="S310" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T310" t="s" s="2">
         <v>864</v>
-      </c>
-      <c r="T310" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U310" t="s" s="2">
         <v>74</v>
@@ -37899,10 +37899,10 @@
       </c>
       <c r="R313" s="2"/>
       <c r="S313" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T313" t="s" s="2">
         <v>880</v>
-      </c>
-      <c r="T313" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U313" t="s" s="2">
         <v>74</v>
@@ -42125,10 +42125,10 @@
       </c>
       <c r="R353" s="2"/>
       <c r="S353" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T353" t="s" s="2">
         <v>1018</v>
-      </c>
-      <c r="T353" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U353" t="s" s="2">
         <v>74</v>
@@ -43179,10 +43179,10 @@
       </c>
       <c r="R363" s="2"/>
       <c r="S363" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T363" t="s" s="2">
         <v>1044</v>
-      </c>
-      <c r="T363" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U363" t="s" s="2">
         <v>74</v>
@@ -44233,10 +44233,10 @@
       </c>
       <c r="R373" s="2"/>
       <c r="S373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T373" t="s" s="2">
         <v>1056</v>
-      </c>
-      <c r="T373" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U373" t="s" s="2">
         <v>74</v>
@@ -45285,10 +45285,10 @@
       </c>
       <c r="R383" s="2"/>
       <c r="S383" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T383" t="s" s="2">
         <v>1069</v>
-      </c>
-      <c r="T383" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U383" t="s" s="2">
         <v>74</v>
@@ -46337,10 +46337,10 @@
       </c>
       <c r="R393" s="2"/>
       <c r="S393" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T393" t="s" s="2">
         <v>1082</v>
-      </c>
-      <c r="T393" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U393" t="s" s="2">
         <v>74</v>
@@ -47391,10 +47391,10 @@
       </c>
       <c r="R403" s="2"/>
       <c r="S403" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T403" t="s" s="2">
         <v>1095</v>
-      </c>
-      <c r="T403" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U403" t="s" s="2">
         <v>74</v>
@@ -48445,10 +48445,10 @@
       </c>
       <c r="R413" s="2"/>
       <c r="S413" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T413" t="s" s="2">
         <v>1107</v>
-      </c>
-      <c r="T413" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U413" t="s" s="2">
         <v>74</v>
@@ -49499,10 +49499,10 @@
       </c>
       <c r="R423" s="2"/>
       <c r="S423" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T423" t="s" s="2">
         <v>1119</v>
-      </c>
-      <c r="T423" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U423" t="s" s="2">
         <v>74</v>
@@ -50551,10 +50551,10 @@
       </c>
       <c r="R433" s="2"/>
       <c r="S433" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T433" t="s" s="2">
         <v>1132</v>
-      </c>
-      <c r="T433" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U433" t="s" s="2">
         <v>74</v>
@@ -51603,10 +51603,10 @@
       </c>
       <c r="R443" s="2"/>
       <c r="S443" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T443" t="s" s="2">
         <v>1145</v>
-      </c>
-      <c r="T443" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U443" t="s" s="2">
         <v>74</v>
@@ -52657,10 +52657,10 @@
       </c>
       <c r="R453" s="2"/>
       <c r="S453" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T453" t="s" s="2">
         <v>1157</v>
-      </c>
-      <c r="T453" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U453" t="s" s="2">
         <v>74</v>
@@ -53709,10 +53709,10 @@
       </c>
       <c r="R463" s="2"/>
       <c r="S463" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T463" t="s" s="2">
         <v>1170</v>
-      </c>
-      <c r="T463" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U463" t="s" s="2">
         <v>74</v>
@@ -54761,10 +54761,10 @@
       </c>
       <c r="R473" s="2"/>
       <c r="S473" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T473" t="s" s="2">
         <v>1183</v>
-      </c>
-      <c r="T473" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U473" t="s" s="2">
         <v>74</v>
@@ -55815,10 +55815,10 @@
       </c>
       <c r="R483" s="2"/>
       <c r="S483" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T483" t="s" s="2">
         <v>1195</v>
-      </c>
-      <c r="T483" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U483" t="s" s="2">
         <v>74</v>
@@ -56867,10 +56867,10 @@
       </c>
       <c r="R493" s="2"/>
       <c r="S493" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T493" t="s" s="2">
         <v>1209</v>
-      </c>
-      <c r="T493" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U493" t="s" s="2">
         <v>74</v>
@@ -57919,10 +57919,10 @@
       </c>
       <c r="R503" s="2"/>
       <c r="S503" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T503" t="s" s="2">
         <v>1222</v>
-      </c>
-      <c r="T503" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U503" t="s" s="2">
         <v>74</v>
@@ -58973,10 +58973,10 @@
       </c>
       <c r="R513" s="2"/>
       <c r="S513" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T513" t="s" s="2">
         <v>1234</v>
-      </c>
-      <c r="T513" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="U513" t="s" s="2">
         <v>74</v>

--- a/ig/ANS-006-115-#150-#67/all-profiles.xlsx
+++ b/ig/ANS-006-115-#150-#67/all-profiles.xlsx
@@ -2570,7 +2570,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}inv-1:Last modified date must be greater than or equal to authored-on date. {lastModified.exists().not() or authoredOn.exists().not() or lastModified &gt;= authoredOn}regle-StatutUnite:Si statut unite est rempli alors les éléments suivants sont attendus :idUnite,nomUnite, categorieOrganisation, modePriseCharge, dateStatutUnite {input.type.where(text='idUnite').exists() and input.type.where(text='nomUnite').exists() and input.type.where(text='categorieOrganisation').exists() and input.type.where(text='modePriseCharge').exists() and input.type.where(text='dateStatutUnite').exists() or input.type.where(text='statutUnite').exists().not()}regle-ModePriseEnCharge:Les codes possibles pour le mode de prise en charge sont : Code 46 « Hébergement (accueil jour et nuit) » = Internat (1),Code 47 « Accueil de jour » = externat (2), semi-internat (3) ou accueil de jour (6),Code 48 Accueil de nuit » = Accueil de nuit (4) {input.where(type.text='modePriseCharge').value.coding.code='48' or input.where(type.text='modePriseCharge').value.coding.code='47'  or input.where(type.text='modePriseCharge').value.coding.code='46' or input.where(type.text='modePriseCharge').exists().not() }</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}inv-1:Last modified date must be greater than or equal to authored-on date. {lastModified.exists().not() or authoredOn.exists().not() or lastModified &gt;= authoredOn}regle-StatutUnite:Si statut unite est rempli alors les éléments suivants sont attendus :idUnite,nomUnite, categorieOrganisation, modePriseCharge, dateStatutUnite {(input.type.where(text='idUnite').exists()) implies (input.type.where(text='nomUnite').exists() and input.type.where(text='categorieOrganisation').exists() and input.type.where(text='modePriseCharge').exists() and input.type.where(text='dateStatutUnite').exists() and input.type.where(text='statutUnite').exists())}regle-ModePriseEnCharge:Les codes possibles pour le mode de prise en charge sont : Code 46 « Hébergement (accueil jour et nuit) » = Internat (1),Code 47 « Accueil de jour » = externat (2), semi-internat (3) ou accueil de jour (6),Code 48 Accueil de nuit » = Accueil de nuit (4) {input.where(type.text='modePriseCharge').value.coding.code='48' or input.where(type.text='modePriseCharge').value.coding.code='47'  or input.where(type.text='modePriseCharge').value.coding.code='46' or input.where(type.text='modePriseCharge').exists().not() }</t>
   </si>
   <si>
     <t>Task.id</t>

--- a/ig/ANS-006-115-#150-#67/all-profiles.xlsx
+++ b/ig/ANS-006-115-#150-#67/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T16:25:35+00:00</t>
+    <t>2024-03-26T08:08:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ANS-006-115-#150-#67/all-profiles.xlsx
+++ b/ig/ANS-006-115-#150-#67/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T08:08:49+00:00</t>
+    <t>2024-03-26T08:51:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
